--- a/Type.xlsx
+++ b/Type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine Comia\OneDrive\Documents\GitHub\FilipinoSlangTranslate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Predator\OneDrive\Documents\GitHub\FilipinoSlangTranslate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470F6B5-2780-400F-B1D1-ADB339AB4EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDA1648-4203-4900-8CCD-185EF5C2ED76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EAC5B7A7-D8E5-4D8A-8958-1836CE7E7C94}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8880" xr2:uid="{EAC5B7A7-D8E5-4D8A-8958-1836CE7E7C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -318,9 +309,6 @@
     <t>bokal</t>
   </si>
   <si>
-    <t>Noypi</t>
-  </si>
-  <si>
     <t>wetpu</t>
   </si>
   <si>
@@ -463,6 +451,9 @@
   </si>
   <si>
     <t>charot</t>
+  </si>
+  <si>
+    <t>noypi</t>
   </si>
 </sst>
 </file>
@@ -863,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1026876D-E583-441E-ABC1-B89BE1F83B6C}">
   <dimension ref="A1:B1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -886,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -894,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -902,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -910,15 +901,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -926,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -934,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -942,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -950,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -958,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -966,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -974,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -982,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -990,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -998,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1006,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1014,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1022,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1030,7 +1021,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1038,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1046,7 +1037,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1054,7 +1045,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1062,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1070,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1078,7 +1069,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1086,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1094,7 +1085,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1102,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1110,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1118,7 +1109,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1126,7 +1117,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1134,7 +1125,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1142,7 +1133,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1150,7 +1141,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1158,7 +1149,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1166,7 +1157,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1174,7 +1165,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1182,7 +1173,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1190,7 +1181,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1198,7 +1189,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1206,7 +1197,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1214,7 +1205,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1222,7 +1213,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,7 +1221,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1238,7 +1229,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1246,7 +1237,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1254,7 +1245,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1262,7 +1253,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1270,7 +1261,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1278,7 +1269,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1286,7 +1277,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1294,7 +1285,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1302,7 +1293,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1310,7 +1301,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1318,7 +1309,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1326,7 +1317,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1334,7 +1325,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1342,7 +1333,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1350,7 +1341,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1358,7 +1349,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1366,7 +1357,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1374,7 +1365,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1382,7 +1373,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1390,7 +1381,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1398,7 +1389,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1406,7 +1397,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1414,7 +1405,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1422,7 +1413,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1430,7 +1421,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1438,7 +1429,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1446,7 +1437,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1454,7 +1445,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1462,7 +1453,7 @@
         <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1470,7 +1461,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1478,7 +1469,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1486,7 +1477,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1494,7 +1485,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1502,7 +1493,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1510,7 +1501,7 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1518,7 +1509,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1526,7 +1517,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1534,7 +1525,7 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1542,7 +1533,7 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1550,7 +1541,7 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1558,7 +1549,7 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1566,7 +1557,7 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1574,7 +1565,7 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1582,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1590,7 +1581,7 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1598,7 +1589,7 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1606,7 +1597,7 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1614,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1622,7 +1613,7 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1630,7 +1621,7 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1638,7 +1629,7 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1646,359 +1637,359 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
